--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T21:32:00+00:00</t>
+    <t>2023-09-29T19:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-validation-status-value-set.xlsx
+++ b/ValueSet-bc-address-validation-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
